--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -20,33 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t xml:space="preserve">BaseURL</t>
   </si>
   <si>
+    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Format --&gt; Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dev-api.fundsindia.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Cell Format --&gt; Text</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">dsathish0223@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://testapi.fundsindia.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regression@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">https://testapi.fundsindia.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">124702100 </t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">asdfasdf12</t>
+    <t xml:space="preserve">Koushik@2627</t>
   </si>
   <si>
     <t xml:space="preserve">https://scrum-api.fundsindia.com</t>
@@ -93,13 +99,7 @@
     <t xml:space="preserve">HoldingID</t>
   </si>
   <si>
-    <t xml:space="preserve">183318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsathish0223@gmail.com</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">343423/434</t>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
@@ -246,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -281,11 +278,17 @@
       <color rgb="FF6A8759"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF6A8759"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -400,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,23 +436,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,19 +468,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,11 +488,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,23 +512,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,7 +540,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,7 +624,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,119 +649,119 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>183318</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <v>179480</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="13" t="n">
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="n">
         <v>182347</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>15</v>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="0"/>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>23</v>
+      <c r="A7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>25</v>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
@@ -764,22 +771,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -793,131 +800,131 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="19" t="s">
+      <c r="F10" s="7"/>
+      <c r="I10" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
+      <c r="F11" s="13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+    <row r="16" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -928,8 +935,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>47</v>
+      <c r="A23" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1000</v>
@@ -939,25 +946,25 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>19</v>
+      <c r="B24" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="23" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
+    <row r="25" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -1012,61 +1019,61 @@
       <c r="I29" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="B34" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1433</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="8" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33" t="s">
+      <c r="B35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
+      <c r="B36" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1076,13 +1083,14 @@
     <mergeCell ref="A32:E32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://dev-api.fundsindia.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Regression@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId3" display="triveni@fundsindia.com"/>
-    <hyperlink ref="E4" r:id="rId4" display="saravanan.e@fundsindia.com"/>
-    <hyperlink ref="F7" r:id="rId5" display="dsathish0223@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId6" display="https://staging-api.fundsindia.com"/>
-    <hyperlink ref="F12" r:id="rId7" display="saravan0989@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://staging-api.fundsindia.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="dsathish0223@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="Koushik@2627"/>
+    <hyperlink ref="E3" r:id="rId4" display="triveni@fundsindia.com"/>
+    <hyperlink ref="E4" r:id="rId5" display="saravanan.e@fundsindia.com"/>
+    <hyperlink ref="F7" r:id="rId6" display="dsathish0223@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId7" display="https://staging-api.fundsindia.com"/>
+    <hyperlink ref="F12" r:id="rId8" display="saravan0989@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -20,39 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t xml:space="preserve">BaseURL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+    <t xml:space="preserve">https://dev-api.fundsindia.com</t>
   </si>
   <si>
     <t xml:space="preserve">Cell Format --&gt; Text</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dev-api.fundsindia.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">dsathish0223@gmail.com</t>
+    <t xml:space="preserve">Regression@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://testapi.fundsindia.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Regression@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">124702100 </t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Koushik@2627</t>
+    <t xml:space="preserve">asdfasdf12</t>
   </si>
   <si>
     <t xml:space="preserve">https://scrum-api.fundsindia.com</t>
@@ -99,67 +93,73 @@
     <t xml:space="preserve">HoldingID</t>
   </si>
   <si>
+    <t xml:space="preserve">183318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsathish0223@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343423/434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.fundsindia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invest_More Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Format --&gt; Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(M-IDCW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(G)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected_Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotak Balanced Advantage Fund-Reg(IDCW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emergency portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saravan0989@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara_1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redeem Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343423/434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.fundsindia.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invest_More Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Format --&gt; Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(M-IDCW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheme_Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(G)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected_Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotak Balanced Advantage Fund-Reg(IDCW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goal_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Emergency portfolio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saravan0989@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch_TargetScheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara_1689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redeem Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
@@ -243,7 +243,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,12 +285,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -403,7 +397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,51 +430,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,11 +478,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,23 +502,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,7 +530,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,7 +614,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -650,118 +640,118 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>183318</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>179480</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="13" t="n">
+        <v>182347</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="n">
-        <v>182347</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="0"/>
       <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
@@ -771,10 +761,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -786,7 +776,7 @@
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -800,92 +790,88 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>1</v>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21" t="s">
+    </row>
+    <row r="16" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -894,10 +880,10 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -906,26 +892,26 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>45</v>
+      <c r="A22" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0</v>
@@ -935,35 +921,35 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>21</v>
+      <c r="B24" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+    <row r="25" s="23" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="0"/>
@@ -1019,18 +1005,18 @@
       <c r="I29" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
@@ -1044,24 +1030,24 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>1433</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1069,7 +1055,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1083,14 +1069,13 @@
     <mergeCell ref="A32:E32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://staging-api.fundsindia.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="dsathish0223@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3" display="Koushik@2627"/>
-    <hyperlink ref="E3" r:id="rId4" display="triveni@fundsindia.com"/>
-    <hyperlink ref="E4" r:id="rId5" display="saravanan.e@fundsindia.com"/>
-    <hyperlink ref="F7" r:id="rId6" display="dsathish0223@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId7" display="https://staging-api.fundsindia.com"/>
-    <hyperlink ref="F12" r:id="rId8" display="saravan0989@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://dev-api.fundsindia.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Regression@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId3" display="triveni@fundsindia.com"/>
+    <hyperlink ref="E4" r:id="rId4" display="saravanan.e@fundsindia.com"/>
+    <hyperlink ref="F7" r:id="rId5" display="dsathish0223@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://staging-api.fundsindia.com"/>
+    <hyperlink ref="F12" r:id="rId7" display="saravan0989@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t xml:space="preserve">BaseURL</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">https://scrum3-api.fundsindia.com</t>
+    <t xml:space="preserve">https://scrum4-api.fundsindia.com</t>
   </si>
   <si>
     <t xml:space="preserve">124702100</t>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">growth</t>
   </si>
   <si>
-    <t xml:space="preserve">https://scrum4-api.fundsindia.com</t>
+    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
   </si>
   <si>
     <t xml:space="preserve">HoldingID</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">183318</t>
   </si>
   <si>
-    <t xml:space="preserve">https://staging-api.fundsindia.com</t>
+    <t xml:space="preserve">https://api.fundsindia.com</t>
   </si>
   <si>
     <t xml:space="preserve">dsathish0223@gmail.com</t>
@@ -108,13 +108,16 @@
     <t xml:space="preserve">DIV</t>
   </si>
   <si>
+    <t xml:space="preserve">Invest More</t>
+  </si>
+  <si>
     <t xml:space="preserve">Folio</t>
   </si>
   <si>
     <t xml:space="preserve">12345/02</t>
   </si>
   <si>
-    <t xml:space="preserve">https://api.fundsindia.com</t>
+    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(M-IDCW)</t>
   </si>
   <si>
     <t xml:space="preserve">Invest_More Amount</t>
@@ -123,7 +126,7 @@
     <t xml:space="preserve">Cell Format --&gt; Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(M-IDCW)</t>
+    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(G)</t>
   </si>
   <si>
     <t xml:space="preserve">Scheme_Search</t>
@@ -132,24 +135,18 @@
     <t xml:space="preserve">Kotak</t>
   </si>
   <si>
-    <t xml:space="preserve">Aditya Birla SL Corp Bond Fund(G)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expected_Scheme</t>
   </si>
   <si>
     <t xml:space="preserve">Kotak Balanced Advantage Fund-Reg(IDCW)</t>
   </si>
   <si>
+    <t xml:space="preserve">saravan0989@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goal_Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> Emergency portfolio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saravan0989@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sara_1689</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">TargetScheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Birla SL Floating Rate Fund(DD-IDCW)</t>
   </si>
   <si>
     <r>
@@ -397,7 +397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,6 +472,10 @@
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -614,7 +618,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,7 +690,7 @@
         <v>179480</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -760,107 +764,100 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="I10" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="I10" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="19" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="B13" s="20"/>
+      <c r="F13" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="20" t="s">
+    <row r="16" s="26" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -869,10 +866,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
@@ -881,10 +878,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
@@ -893,63 +890,63 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" s="26" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="23" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
+    <row r="25" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="0"/>
@@ -1005,18 +1002,18 @@
       <c r="I29" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
@@ -1030,7 +1027,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1047,7 +1044,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1055,7 +1052,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1063,7 +1060,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A32:E32"/>

--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t xml:space="preserve">BaseURL</t>
   </si>
@@ -199,6 +199,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">SWP DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECSDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No: Installments </t>
+  </si>
+  <si>
     <t xml:space="preserve">DB Connection</t>
   </si>
   <si>
@@ -243,7 +258,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,10 +303,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -304,6 +318,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -397,7 +418,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,7 +467,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,71 +479,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,11 +551,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,10 +640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,14 +789,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="20" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="E8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
@@ -798,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -806,7 +832,7 @@
       <c r="A11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -820,13 +846,13 @@
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -834,29 +860,29 @@
       <c r="A13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="F13" s="21" t="s">
+      <c r="B13" s="24"/>
+      <c r="F13" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+    <row r="16" s="20" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -868,7 +894,7 @@
       <c r="A18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -890,20 +916,20 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" s="26" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="20" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
         <v>49</v>
       </c>
@@ -979,21 +1005,21 @@
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
+    <row r="28" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="33" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
+      <c r="A29" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
@@ -1001,62 +1027,132 @@
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3" t="n">
         <v>1433</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="D60" s="8" t="s">
         <v>63</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1160,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://dev-api.fundsindia.com"/>

--- a/src/main/testdata/Login.xlsx
+++ b/src/main/testdata/Login.xlsx
@@ -642,15 +642,15 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="53.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="27.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="4" width="11.53"/>
